--- a/www/IndicatorsPerCountry/Armenia_CopperProduction_TerritorialRef_1991_2012_CCode_51.xlsx
+++ b/www/IndicatorsPerCountry/Armenia_CopperProduction_TerritorialRef_1991_2012_CCode_51.xlsx
@@ -234,13 +234,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Armenia_CopperProduction_TerritorialRef_1991_2012_CCode_51.xlsx
+++ b/www/IndicatorsPerCountry/Armenia_CopperProduction_TerritorialRef_1991_2012_CCode_51.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="93">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,172 +39,223 @@
     <t>0</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2.9</t>
+    <t>0.0021795989537925</t>
+  </si>
+  <si>
+    <t>0.00316041848299913</t>
+  </si>
+  <si>
+    <t>0.00381429816913688</t>
+  </si>
+  <si>
+    <t>0.00719267654751526</t>
+  </si>
+  <si>
+    <t>0.013077593722755</t>
+  </si>
+  <si>
+    <t>0.0143853530950305</t>
+  </si>
+  <si>
+    <t>0.0198343504795118</t>
+  </si>
+  <si>
+    <t>0.0272449869224063</t>
+  </si>
+  <si>
+    <t>0.0326939843068875</t>
+  </si>
+  <si>
+    <t>0.0316041848299913</t>
+  </si>
+  <si>
+    <t>0.04359197907585</t>
+  </si>
+  <si>
+    <t>0.0599389712292938</t>
+  </si>
+  <si>
+    <t>0.0795553618134263</t>
+  </si>
+  <si>
+    <t>0.0980819529206626</t>
+  </si>
+  <si>
+    <t>0.108979947689625</t>
+  </si>
+  <si>
+    <t>0.119877942458588</t>
+  </si>
+  <si>
+    <t>0.137314734088928</t>
+  </si>
+  <si>
+    <t>0.154751525719268</t>
+  </si>
+  <si>
+    <t>0.143853530950305</t>
+  </si>
+  <si>
+    <t>0.132955536181343</t>
+  </si>
+  <si>
+    <t>0.188535309503051</t>
+  </si>
+  <si>
+    <t>0.213055797733217</t>
+  </si>
+  <si>
+    <t>0.237576285963383</t>
+  </si>
+  <si>
+    <t>0.276809067131648</t>
+  </si>
+  <si>
+    <t>0.321490845684394</t>
+  </si>
+  <si>
+    <t>0.337837837837838</t>
+  </si>
+  <si>
+    <t>0.414123801220575</t>
+  </si>
+  <si>
+    <t>0.4359197907585</t>
+  </si>
+  <si>
+    <t>0.457715780296425</t>
+  </si>
+  <si>
+    <t>0.446817785527463</t>
+  </si>
+  <si>
+    <t>0.463164777680907</t>
+  </si>
+  <si>
+    <t>0.474062772449869</t>
+  </si>
+  <si>
+    <t>0.544899738448126</t>
+  </si>
+  <si>
+    <t>0.599389712292938</t>
+  </si>
+  <si>
+    <t>0.708369659982563</t>
+  </si>
+  <si>
+    <t>0.762859633827376</t>
+  </si>
+  <si>
+    <t>0.817349607672188</t>
+  </si>
+  <si>
+    <t>0.871839581517001</t>
+  </si>
+  <si>
+    <t>0.899084568439407</t>
+  </si>
+  <si>
+    <t>0.926329555361813</t>
+  </si>
+  <si>
+    <t>0.95357454228422</t>
+  </si>
+  <si>
+    <t>1.00806451612903</t>
+  </si>
+  <si>
+    <t>1.07890148212729</t>
+  </si>
+  <si>
+    <t>1.12249346120314</t>
+  </si>
+  <si>
+    <t>1.19877942458588</t>
+  </si>
+  <si>
+    <t>1.3077593722755</t>
+  </si>
+  <si>
+    <t>1.23147340889276</t>
+  </si>
+  <si>
+    <t>0.942676547515257</t>
+  </si>
+  <si>
+    <t>0.964472537053182</t>
+  </si>
+  <si>
+    <t>0.980819529206626</t>
+  </si>
+  <si>
+    <t>1.03530950305144</t>
+  </si>
+  <si>
+    <t>1.10069747166521</t>
+  </si>
+  <si>
+    <t>1.11159546643418</t>
+  </si>
+  <si>
+    <t>0.915431560592851</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>195.5</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>875</t>
-  </si>
-  <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>865</t>
-  </si>
-  <si>
-    <t>885</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>917.6</t>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>9.158</t>
+  </si>
+  <si>
+    <t>9.83</t>
+  </si>
+  <si>
+    <t>12.234</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>23.233</t>
+  </si>
+  <si>
+    <t>31.062</t>
+  </si>
+  <si>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>40.441</t>
   </si>
   <si>
     <t>Description</t>
@@ -319,7 +370,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1700.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -336,10 +387,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1701.0</v>
+        <v>1729.0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -353,10 +404,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1702.0</v>
+        <v>1730.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -370,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1703.0</v>
+        <v>1731.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -387,10 +438,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1704.0</v>
+        <v>1732.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -404,10 +455,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1705.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -421,10 +472,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1706.0</v>
+        <v>1734.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -438,10 +489,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1707.0</v>
+        <v>1735.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -455,10 +506,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1708.0</v>
+        <v>1736.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -472,10 +523,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1709.0</v>
+        <v>1737.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -489,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1710.0</v>
+        <v>1738.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -506,10 +557,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1711.0</v>
+        <v>1739.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -523,10 +574,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1712.0</v>
+        <v>1740.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -540,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1713.0</v>
+        <v>1741.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -557,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1714.0</v>
+        <v>1742.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -574,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1715.0</v>
+        <v>1743.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -591,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1716.0</v>
+        <v>1744.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +659,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1717.0</v>
+        <v>1745.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -625,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1718.0</v>
+        <v>1746.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -642,10 +693,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1719.0</v>
+        <v>1747.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -659,10 +710,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1720.0</v>
+        <v>1748.0</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -676,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1721.0</v>
+        <v>1749.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -693,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1722.0</v>
+        <v>1750.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -710,10 +761,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1723.0</v>
+        <v>1751.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -727,10 +778,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1724.0</v>
+        <v>1752.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -744,10 +795,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1725.0</v>
+        <v>1753.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -761,10 +812,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1726.0</v>
+        <v>1754.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -778,10 +829,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1727.0</v>
+        <v>1755.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -795,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1728.0</v>
+        <v>1756.0</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -812,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1729.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -829,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1730.0</v>
+        <v>1758.0</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -846,7 +897,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1731.0</v>
+        <v>1759.0</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -863,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1732.0</v>
+        <v>1760.0</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -880,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1733.0</v>
+        <v>1761.0</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -897,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1734.0</v>
+        <v>1762.0</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -914,7 +965,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1735.0</v>
+        <v>1763.0</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -931,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1736.0</v>
+        <v>1764.0</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -948,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1737.0</v>
+        <v>1765.0</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -965,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1738.0</v>
+        <v>1766.0</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -982,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1739.0</v>
+        <v>1767.0</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -999,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1740.0</v>
+        <v>1768.0</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1016,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1741.0</v>
+        <v>1769.0</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -1033,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1742.0</v>
+        <v>1770.0</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1050,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1743.0</v>
+        <v>1771.0</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -1067,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1744.0</v>
+        <v>1772.0</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -1084,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1745.0</v>
+        <v>1773.0</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -1101,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1746.0</v>
+        <v>1774.0</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -1118,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1747.0</v>
+        <v>1775.0</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1135,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1748.0</v>
+        <v>1776.0</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -1152,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1749.0</v>
+        <v>1777.0</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -1169,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1750.0</v>
+        <v>1778.0</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -1186,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1751.0</v>
+        <v>1779.0</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -1203,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1752.0</v>
+        <v>1780.0</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -1220,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1753.0</v>
+        <v>1781.0</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -1237,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1754.0</v>
+        <v>1782.0</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -1254,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1755.0</v>
+        <v>1783.0</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -1271,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1756.0</v>
+        <v>1784.0</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -1288,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1757.0</v>
+        <v>1785.0</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -1305,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1758.0</v>
+        <v>1786.0</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -1322,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1759.0</v>
+        <v>1787.0</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
@@ -1339,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1760.0</v>
+        <v>1788.0</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
@@ -1356,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1761.0</v>
+        <v>1789.0</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -1373,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1762.0</v>
+        <v>1790.0</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
@@ -1390,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1763.0</v>
+        <v>1791.0</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -1407,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1764.0</v>
+        <v>1792.0</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
@@ -1424,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1765.0</v>
+        <v>1793.0</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
@@ -1441,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1766.0</v>
+        <v>1794.0</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
@@ -1458,7 +1509,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1767.0</v>
+        <v>1795.0</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
@@ -1475,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1768.0</v>
+        <v>1796.0</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
@@ -1492,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1769.0</v>
+        <v>1797.0</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
@@ -1509,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1770.0</v>
+        <v>1798.0</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
@@ -1526,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1771.0</v>
+        <v>1799.0</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -1543,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1772.0</v>
+        <v>1800.0</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
@@ -1560,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1773.0</v>
+        <v>1801.0</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
@@ -1577,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1774.0</v>
+        <v>1802.0</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
@@ -1594,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1775.0</v>
+        <v>1803.0</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -1611,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1776.0</v>
+        <v>1804.0</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -1628,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1777.0</v>
+        <v>1805.0</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
@@ -1645,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1778.0</v>
+        <v>1806.0</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -1662,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1779.0</v>
+        <v>1807.0</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -1679,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1780.0</v>
+        <v>1808.0</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -1696,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1781.0</v>
+        <v>1809.0</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -1713,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1782.0</v>
+        <v>1810.0</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -1730,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1783.0</v>
+        <v>1811.0</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -1747,7 +1798,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1784.0</v>
+        <v>1812.0</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
@@ -1764,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1785.0</v>
+        <v>1813.0</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -1781,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1786.0</v>
+        <v>1814.0</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -1798,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1787.0</v>
+        <v>1815.0</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
@@ -1815,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1788.0</v>
+        <v>1816.0</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -1832,7 +1883,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1789.0</v>
+        <v>1817.0</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
@@ -1849,7 +1900,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1790.0</v>
+        <v>1818.0</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
@@ -1866,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1791.0</v>
+        <v>1819.0</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
@@ -1883,7 +1934,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1792.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E94" t="s">
         <v>7</v>
@@ -1900,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1793.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E95" t="s">
         <v>7</v>
@@ -1917,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1794.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E96" t="s">
         <v>7</v>
@@ -1934,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1795.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -1951,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1796.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
@@ -1968,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1797.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E99" t="s">
         <v>7</v>
@@ -1985,7 +2036,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1798.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E100" t="s">
         <v>7</v>
@@ -2002,7 +2053,7 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1799.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
@@ -2019,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1800.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
@@ -2036,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1801.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E103" t="s">
         <v>7</v>
@@ -2053,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1802.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
@@ -2070,7 +2121,7 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1803.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E105" t="s">
         <v>7</v>
@@ -2087,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1804.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -2104,7 +2155,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1805.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
@@ -2121,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1806.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
@@ -2138,7 +2189,7 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1807.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E109" t="s">
         <v>7</v>
@@ -2155,7 +2206,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1808.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E110" t="s">
         <v>7</v>
@@ -2172,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1809.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E111" t="s">
         <v>7</v>
@@ -2189,7 +2240,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1810.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E112" t="s">
         <v>7</v>
@@ -2206,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1811.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -2223,7 +2274,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1812.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
@@ -2240,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1813.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E115" t="s">
         <v>7</v>
@@ -2257,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1814.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -2274,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1815.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E117" t="s">
         <v>7</v>
@@ -2291,7 +2342,7 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1816.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
@@ -2308,7 +2359,7 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1817.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -2325,7 +2376,7 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1818.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
@@ -2342,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1819.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E121" t="s">
         <v>7</v>
@@ -2359,7 +2410,7 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1820.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
@@ -2376,7 +2427,7 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1821.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -2393,7 +2444,7 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1822.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -2410,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1823.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -2427,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1824.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E126" t="s">
         <v>7</v>
@@ -2444,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1825.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E127" t="s">
         <v>7</v>
@@ -2461,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1826.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E128" t="s">
         <v>7</v>
@@ -2478,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1827.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -2495,7 +2546,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1828.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E130" t="s">
         <v>7</v>
@@ -2512,7 +2563,7 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1829.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E131" t="s">
         <v>7</v>
@@ -2529,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1830.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
@@ -2546,7 +2597,7 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1831.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -2563,7 +2614,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1832.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
@@ -2580,7 +2631,7 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>1833.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E135" t="s">
         <v>7</v>
@@ -2597,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>1834.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
@@ -2614,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1835.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E137" t="s">
         <v>7</v>
@@ -2631,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>1836.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E138" t="s">
         <v>7</v>
@@ -2648,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1837.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
@@ -2665,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1838.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E140" t="s">
         <v>7</v>
@@ -2682,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1839.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E141" t="s">
         <v>7</v>
@@ -2699,7 +2750,7 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1840.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
@@ -2716,7 +2767,7 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1841.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -2733,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1842.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E144" t="s">
         <v>7</v>
@@ -2750,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1843.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E145" t="s">
         <v>7</v>
@@ -2767,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1844.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -2784,7 +2835,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1845.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
@@ -2801,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1846.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -2818,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1847.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -2835,7 +2886,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1848.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -2852,7 +2903,7 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1849.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E151" t="s">
         <v>7</v>
@@ -2869,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1850.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -2886,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>1851.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E153" t="s">
         <v>7</v>
@@ -2903,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1852.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E154" t="s">
         <v>7</v>
@@ -2920,7 +2971,7 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1853.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E155" t="s">
         <v>7</v>
@@ -2937,7 +2988,7 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1854.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E156" t="s">
         <v>7</v>
@@ -2954,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>1855.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
@@ -2971,7 +3022,7 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>1856.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E158" t="s">
         <v>7</v>
@@ -2988,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>1857.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E159" t="s">
         <v>7</v>
@@ -3005,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1858.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E160" t="s">
         <v>7</v>
@@ -3022,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1859.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E161" t="s">
         <v>7</v>
@@ -3039,7 +3090,7 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1860.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E162" t="s">
         <v>7</v>
@@ -3056,7 +3107,7 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1861.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E163" t="s">
         <v>7</v>
@@ -3073,7 +3124,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1862.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E164" t="s">
         <v>7</v>
@@ -3090,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1863.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E165" t="s">
         <v>7</v>
@@ -3107,7 +3158,7 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1864.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E166" t="s">
         <v>7</v>
@@ -3124,7 +3175,7 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1865.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E167" t="s">
         <v>7</v>
@@ -3141,7 +3192,7 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1866.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E168" t="s">
         <v>7</v>
@@ -3158,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1867.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E169" t="s">
         <v>7</v>
@@ -3175,7 +3226,7 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1868.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E170" t="s">
         <v>7</v>
@@ -3192,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>1869.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E171" t="s">
         <v>7</v>
@@ -3209,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>1870.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E172" t="s">
         <v>7</v>
@@ -3226,7 +3277,7 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>1871.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E173" t="s">
         <v>7</v>
@@ -3243,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1872.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E174" t="s">
         <v>7</v>
@@ -3260,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>1873.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E175" t="s">
         <v>7</v>
@@ -3277,7 +3328,7 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>1874.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E176" t="s">
         <v>7</v>
@@ -3294,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>1875.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E177" t="s">
         <v>7</v>
@@ -3311,7 +3362,7 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>1876.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E178" t="s">
         <v>7</v>
@@ -3328,7 +3379,7 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1877.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E179" t="s">
         <v>7</v>
@@ -3345,7 +3396,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>1878.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E180" t="s">
         <v>7</v>
@@ -3362,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>1879.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E181" t="s">
         <v>7</v>
@@ -3379,7 +3430,7 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>1880.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E182" t="s">
         <v>7</v>
@@ -3396,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>1881.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E183" t="s">
         <v>7</v>
@@ -3413,7 +3464,7 @@
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>1882.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E184" t="s">
         <v>7</v>
@@ -3430,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>1883.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E185" t="s">
         <v>7</v>
@@ -3447,7 +3498,7 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>1884.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E186" t="s">
         <v>7</v>
@@ -3464,7 +3515,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>1885.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E187" t="s">
         <v>7</v>
@@ -3481,7 +3532,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>1886.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E188" t="s">
         <v>7</v>
@@ -3498,7 +3549,7 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>1887.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E189" t="s">
         <v>7</v>
@@ -3515,7 +3566,7 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>1888.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E190" t="s">
         <v>7</v>
@@ -3532,7 +3583,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>1889.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E191" t="s">
         <v>7</v>
@@ -3549,7 +3600,7 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>1890.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E192" t="s">
         <v>7</v>
@@ -3566,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>1891.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E193" t="s">
         <v>7</v>
@@ -3583,7 +3634,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1892.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E194" t="s">
         <v>7</v>
@@ -3600,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>1893.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E195" t="s">
         <v>7</v>
@@ -3617,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>1894.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
@@ -3634,10 +3685,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>1895.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
@@ -3651,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>1896.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -3668,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1897.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
@@ -3685,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>1898.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
@@ -3702,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>1899.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E201" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202">
@@ -3719,10 +3770,10 @@
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>1900.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E202" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -3736,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>1901.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204">
@@ -3753,10 +3804,10 @@
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>1902.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205">
@@ -3770,10 +3821,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>1903.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206">
@@ -3787,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>1904.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
@@ -3804,10 +3855,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>1905.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208">
@@ -3821,10 +3872,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>1906.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E208" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -3838,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>1907.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210">
@@ -3855,10 +3906,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>1908.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
@@ -3872,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>1909.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212">
@@ -3889,10 +3940,10 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>1910.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E212" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213">
@@ -3906,10 +3957,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>1911.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E213" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214">
@@ -3923,10 +3974,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>1912.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215">
@@ -3940,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>1913.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E215" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216">
@@ -3957,10 +4008,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>1914.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217">
@@ -3974,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>1915.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E217" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218">
@@ -3991,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>1916.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219">
@@ -4008,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>1917.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220">
@@ -4025,10 +4076,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>1918.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221">
@@ -4042,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>1919.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E221" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222">
@@ -4059,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>1920.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223">
@@ -4076,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>1921.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E223" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224">
@@ -4093,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>1922.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E224" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225">
@@ -4110,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>1923.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226">
@@ -4127,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>1924.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -4144,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>1925.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E227" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228">
@@ -4161,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>1926.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E228" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="229">
@@ -4178,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>1927.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E229" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230">
@@ -4195,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>1928.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E230" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="231">
@@ -4212,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>1929.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E231" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="232">
@@ -4229,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>1930.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E232" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="233">
@@ -4246,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>1931.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E233" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234">
@@ -4263,10 +4314,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>1932.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E234" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="235">
@@ -4280,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>1933.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E235" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="236">
@@ -4297,10 +4348,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>1934.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E236" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="237">
@@ -4314,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>1935.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E237" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="238">
@@ -4331,10 +4382,10 @@
         <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>1936.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E238" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="239">
@@ -4348,10 +4399,10 @@
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>1937.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E239" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240">
@@ -4365,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>1938.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E240" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241">
@@ -4382,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>1939.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E241" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="242">
@@ -4399,10 +4450,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>1940.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E242" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="243">
@@ -4416,10 +4467,10 @@
         <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>1941.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E243" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="244">
@@ -4433,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>1942.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E244" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="245">
@@ -4450,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>1943.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E245" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="246">
@@ -4467,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>1944.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E246" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="247">
@@ -4484,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>1945.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E247" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="248">
@@ -4501,10 +4552,10 @@
         <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>1946.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E248" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="249">
@@ -4518,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>1947.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="250">
@@ -4535,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>1948.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="251">
@@ -4552,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>1949.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="252">
@@ -4569,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>1950.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253">
@@ -4586,10 +4637,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>1951.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="254">
@@ -4603,10 +4654,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>1952.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="255">
@@ -4620,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>1953.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="256">
@@ -4637,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>1954.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257">
@@ -4654,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>1955.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258">
@@ -4671,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>1956.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259">
@@ -4688,10 +4739,10 @@
         <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>1957.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="260">
@@ -4705,10 +4756,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>1958.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E260" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="261">
@@ -4722,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>1959.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E261" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="262">
@@ -4739,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>1960.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="263">
@@ -4756,10 +4807,10 @@
         <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>1961.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E263" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="264">
@@ -4773,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>1962.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E264" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="265">
@@ -4790,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>1963.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E265" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="266">
@@ -4807,10 +4858,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>1964.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E266" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="267">
@@ -4824,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>1965.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="268">
@@ -4841,10 +4892,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>1966.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="269">
@@ -4858,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>1967.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="270">
@@ -4875,10 +4926,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>1968.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="271">
@@ -4892,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>1969.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="272">
@@ -4909,10 +4960,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>1970.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="273">
@@ -4926,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>1971.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="274">
@@ -4943,10 +4994,10 @@
         <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>1972.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="275">
@@ -4960,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>1973.0</v>
+        <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="276">
@@ -4977,10 +5028,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>1974.0</v>
+        <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="277">
@@ -4994,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>1975.0</v>
+        <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="278">
@@ -5011,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>1976.0</v>
+        <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="279">
@@ -5028,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>1977.0</v>
+        <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="280">
@@ -5045,10 +5096,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>1978.0</v>
+        <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="281">
@@ -5062,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1979.0</v>
+        <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="282">
@@ -5079,10 +5130,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1980.0</v>
+        <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="283">
@@ -5096,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>1981.0</v>
+        <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="284">
@@ -5113,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>1982.0</v>
+        <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="285">
@@ -5130,10 +5181,10 @@
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>1983.0</v>
+        <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="286">
@@ -5147,486 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>1984.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B287" t="s">
-        <v>5</v>
-      </c>
-      <c r="C287" t="s">
-        <v>6</v>
-      </c>
-      <c r="D287" t="n">
-        <v>1985.0</v>
-      </c>
-      <c r="E287" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B288" t="s">
-        <v>5</v>
-      </c>
-      <c r="C288" t="s">
-        <v>6</v>
-      </c>
-      <c r="D288" t="n">
-        <v>1986.0</v>
-      </c>
-      <c r="E288" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B289" t="s">
-        <v>5</v>
-      </c>
-      <c r="C289" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="E289" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B290" t="s">
-        <v>5</v>
-      </c>
-      <c r="C290" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" t="n">
-        <v>1988.0</v>
-      </c>
-      <c r="E290" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B291" t="s">
-        <v>5</v>
-      </c>
-      <c r="C291" t="s">
-        <v>6</v>
-      </c>
-      <c r="D291" t="n">
-        <v>1989.0</v>
-      </c>
-      <c r="E291" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B292" t="s">
-        <v>5</v>
-      </c>
-      <c r="C292" t="s">
-        <v>6</v>
-      </c>
-      <c r="D292" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="E292" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B293" t="s">
-        <v>5</v>
-      </c>
-      <c r="C293" t="s">
-        <v>6</v>
-      </c>
-      <c r="D293" t="n">
-        <v>1991.0</v>
-      </c>
-      <c r="E293" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B294" t="s">
-        <v>5</v>
-      </c>
-      <c r="C294" t="s">
-        <v>6</v>
-      </c>
-      <c r="D294" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="E294" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B295" t="s">
-        <v>5</v>
-      </c>
-      <c r="C295" t="s">
-        <v>6</v>
-      </c>
-      <c r="D295" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="E295" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B296" t="s">
-        <v>5</v>
-      </c>
-      <c r="C296" t="s">
-        <v>6</v>
-      </c>
-      <c r="D296" t="n">
-        <v>1994.0</v>
-      </c>
-      <c r="E296" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B297" t="s">
-        <v>5</v>
-      </c>
-      <c r="C297" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297" t="n">
-        <v>1995.0</v>
-      </c>
-      <c r="E297" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B298" t="s">
-        <v>5</v>
-      </c>
-      <c r="C298" t="s">
-        <v>6</v>
-      </c>
-      <c r="D298" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="E298" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B299" t="s">
-        <v>5</v>
-      </c>
-      <c r="C299" t="s">
-        <v>6</v>
-      </c>
-      <c r="D299" t="n">
-        <v>1997.0</v>
-      </c>
-      <c r="E299" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B300" t="s">
-        <v>5</v>
-      </c>
-      <c r="C300" t="s">
-        <v>6</v>
-      </c>
-      <c r="D300" t="n">
-        <v>1998.0</v>
-      </c>
-      <c r="E300" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B301" t="s">
-        <v>5</v>
-      </c>
-      <c r="C301" t="s">
-        <v>6</v>
-      </c>
-      <c r="D301" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="E301" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B302" t="s">
-        <v>5</v>
-      </c>
-      <c r="C302" t="s">
-        <v>6</v>
-      </c>
-      <c r="D302" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="E302" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B303" t="s">
-        <v>5</v>
-      </c>
-      <c r="C303" t="s">
-        <v>6</v>
-      </c>
-      <c r="D303" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="E303" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B304" t="s">
-        <v>5</v>
-      </c>
-      <c r="C304" t="s">
-        <v>6</v>
-      </c>
-      <c r="D304" t="n">
-        <v>2002.0</v>
-      </c>
-      <c r="E304" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B305" t="s">
-        <v>5</v>
-      </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-      <c r="D305" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="E305" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B306" t="s">
-        <v>5</v>
-      </c>
-      <c r="C306" t="s">
-        <v>6</v>
-      </c>
-      <c r="D306" t="n">
-        <v>2004.0</v>
-      </c>
-      <c r="E306" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B307" t="s">
-        <v>5</v>
-      </c>
-      <c r="C307" t="s">
-        <v>6</v>
-      </c>
-      <c r="D307" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="E307" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B308" t="s">
-        <v>5</v>
-      </c>
-      <c r="C308" t="s">
-        <v>6</v>
-      </c>
-      <c r="D308" t="n">
-        <v>2006.0</v>
-      </c>
-      <c r="E308" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B309" t="s">
-        <v>5</v>
-      </c>
-      <c r="C309" t="s">
-        <v>6</v>
-      </c>
-      <c r="D309" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="E309" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B310" t="s">
-        <v>5</v>
-      </c>
-      <c r="C310" t="s">
-        <v>6</v>
-      </c>
-      <c r="D310" t="n">
-        <v>2008.0</v>
-      </c>
-      <c r="E310" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B311" t="s">
-        <v>5</v>
-      </c>
-      <c r="C311" t="s">
-        <v>6</v>
-      </c>
-      <c r="D311" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="E311" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B312" t="s">
-        <v>5</v>
-      </c>
-      <c r="C312" t="s">
-        <v>6</v>
-      </c>
-      <c r="D312" t="n">
-        <v>2010.0</v>
-      </c>
-      <c r="E312" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B313" t="s">
-        <v>5</v>
-      </c>
-      <c r="C313" t="s">
-        <v>6</v>
-      </c>
-      <c r="D313" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="E313" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B314" t="s">
-        <v>5</v>
-      </c>
-      <c r="C314" t="s">
-        <v>6</v>
-      </c>
-      <c r="D314" t="n">
-        <v>2012.0</v>
-      </c>
-      <c r="E314" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5644,50 +5219,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
